--- a/Data_frame/balancos_definitivos/BNCA3.xlsx
+++ b/Data_frame/balancos_definitivos/BNCA3.xlsx
@@ -3805,7 +3805,7 @@
         <v>1673611.008</v>
       </c>
       <c r="K58" t="n">
-        <v>1634355.712</v>
+        <v>1634355.84</v>
       </c>
       <c r="L58" t="n">
         <v>1671980.032</v>
@@ -3849,7 +3849,7 @@
         <v>-913508.992</v>
       </c>
       <c r="G59" t="n">
-        <v>-885266.944</v>
+        <v>-885267.008</v>
       </c>
       <c r="H59" t="n">
         <v>-856414.976</v>
@@ -3861,7 +3861,7 @@
         <v>-958414.976</v>
       </c>
       <c r="K59" t="n">
-        <v>-876073.9840000001</v>
+        <v>-876074.048</v>
       </c>
       <c r="L59" t="n">
         <v>-923790.976</v>
@@ -3905,7 +3905,7 @@
         <v>749169.9840000001</v>
       </c>
       <c r="G60" t="n">
-        <v>725971.968</v>
+        <v>725972.096</v>
       </c>
       <c r="H60" t="n">
         <v>774403.968</v>
@@ -3961,7 +3961,7 @@
         <v>-535918.0159999999</v>
       </c>
       <c r="G61" t="n">
-        <v>-697479.808</v>
+        <v>-697479.872</v>
       </c>
       <c r="H61" t="n">
         <v>-580099.008</v>
@@ -3973,7 +3973,7 @@
         <v>-797483.008</v>
       </c>
       <c r="K61" t="n">
-        <v>-763312.8959999999</v>
+        <v>-763313.024</v>
       </c>
       <c r="L61" t="n">
         <v>-656750.0159999999</v>
@@ -4017,7 +4017,7 @@
         <v>172168.992</v>
       </c>
       <c r="G62" t="n">
-        <v>186089.056</v>
+        <v>186089.04</v>
       </c>
       <c r="H62" t="n">
         <v>195232.992</v>
@@ -4029,7 +4029,7 @@
         <v>231114</v>
       </c>
       <c r="K62" t="n">
-        <v>228795.008</v>
+        <v>228795.04</v>
       </c>
       <c r="L62" t="n">
         <v>251415.008</v>
@@ -4073,7 +4073,7 @@
         <v>-314124.992</v>
       </c>
       <c r="G63" t="n">
-        <v>-332008.96</v>
+        <v>-332008.992</v>
       </c>
       <c r="H63" t="n">
         <v>-316896.992</v>
@@ -4085,7 +4085,7 @@
         <v>-343064</v>
       </c>
       <c r="K63" t="n">
-        <v>-343604.096</v>
+        <v>-343604.064</v>
       </c>
       <c r="L63" t="n">
         <v>-328687.008</v>
@@ -4097,7 +4097,7 @@
         <v>-375444.992</v>
       </c>
       <c r="O63" t="n">
-        <v>-353134.08</v>
+        <v>-353134.016</v>
       </c>
       <c r="P63" t="n">
         <v>-343847.008</v>
@@ -4141,7 +4141,7 @@
         <v>-290088.992</v>
       </c>
       <c r="K64" t="n">
-        <v>-303208</v>
+        <v>-303207.968</v>
       </c>
       <c r="L64" t="n">
         <v>-283891.008</v>
@@ -4185,7 +4185,7 @@
         <v>-63486</v>
       </c>
       <c r="G65" t="n">
-        <v>-65637.008</v>
+        <v>-65637</v>
       </c>
       <c r="H65" t="n">
         <v>-68111</v>
@@ -4197,7 +4197,7 @@
         <v>-70867</v>
       </c>
       <c r="K65" t="n">
-        <v>-72280.992</v>
+        <v>-72281.008</v>
       </c>
       <c r="L65" t="n">
         <v>-72827</v>
@@ -4209,7 +4209,7 @@
         <v>-75174</v>
       </c>
       <c r="O65" t="n">
-        <v>-80414.976</v>
+        <v>-80414.992</v>
       </c>
       <c r="P65" t="n">
         <v>-81690</v>
@@ -4241,7 +4241,7 @@
         <v>36122</v>
       </c>
       <c r="G66" t="n">
-        <v>31915.008</v>
+        <v>31915</v>
       </c>
       <c r="H66" t="n">
         <v>41961</v>
@@ -4409,7 +4409,7 @@
         <v>213252</v>
       </c>
       <c r="G69" t="n">
-        <v>28492.032</v>
+        <v>28491.992</v>
       </c>
       <c r="H69" t="n">
         <v>194304.992</v>
@@ -4633,7 +4633,7 @@
         <v>200084.992</v>
       </c>
       <c r="G73" t="n">
-        <v>7561.984</v>
+        <v>7562.008</v>
       </c>
       <c r="H73" t="n">
         <v>182696.992</v>
@@ -4645,7 +4645,7 @@
         <v>-84819</v>
       </c>
       <c r="K73" t="n">
-        <v>-27774.984</v>
+        <v>-27774.992</v>
       </c>
       <c r="L73" t="n">
         <v>81380</v>
@@ -4689,7 +4689,7 @@
         <v>-55407</v>
       </c>
       <c r="G74" t="n">
-        <v>-36220</v>
+        <v>-36219.992</v>
       </c>
       <c r="H74" t="n">
         <v>-80823</v>
@@ -4701,7 +4701,7 @@
         <v>35390</v>
       </c>
       <c r="K74" t="n">
-        <v>14456.992</v>
+        <v>14457</v>
       </c>
       <c r="L74" t="n">
         <v>48541</v>
@@ -4713,7 +4713,7 @@
         <v>13638</v>
       </c>
       <c r="O74" t="n">
-        <v>-672</v>
+        <v>-672.024</v>
       </c>
       <c r="P74" t="n">
         <v>414716</v>
@@ -4969,7 +4969,7 @@
         <v>128392</v>
       </c>
       <c r="G79" t="n">
-        <v>35180.992</v>
+        <v>35181.008</v>
       </c>
       <c r="H79" t="n">
         <v>87701</v>
@@ -4981,7 +4981,7 @@
         <v>-67898</v>
       </c>
       <c r="K79" t="n">
-        <v>-14500.992</v>
+        <v>-14500.984</v>
       </c>
       <c r="L79" t="n">
         <v>114851</v>
@@ -4993,7 +4993,7 @@
         <v>69830</v>
       </c>
       <c r="O79" t="n">
-        <v>50958.016</v>
+        <v>50958.04</v>
       </c>
       <c r="P79" t="n">
         <v>-349016.992</v>
